--- a/bots/crawl_ch/output/bread_coop_2023-03-09.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-03-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O392"/>
+  <dimension ref="A1:O391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkorntoast 10 Scheiben 2.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Vollkorntoast 10 Scheiben - Online kein Bestand 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8084,7 +8084,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9563,13 +9563,13 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen 10St - Online kein Bestand 3.80 Schweizer Franken</t>
+          <t>Pasquier Milchbrötchen 10St 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10405,7 +10405,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12267,7 +12267,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13042,7 +13042,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13184,7 +13184,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13744,7 +13744,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13959,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15594,7 +15594,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15667,7 +15667,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15878,7 +15878,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16231,7 +16231,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17651,7 +17651,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17714,13 +17714,13 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück - Online kein Bestand 8.95 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 16 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17789,7 +17789,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17858,7 +17858,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -17931,7 +17931,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18077,7 +18077,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18148,7 +18148,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18217,7 +18217,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18284,7 +18284,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18426,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18499,7 +18499,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18568,7 +18568,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18637,7 +18637,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18706,7 +18706,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18775,7 +18775,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18848,7 +18848,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18919,7 +18919,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -18992,7 +18992,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19138,7 +19138,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19211,7 +19211,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19280,7 +19280,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19353,7 +19353,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19420,7 +19420,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19489,7 +19489,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19562,7 +19562,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19629,7 +19629,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19698,7 +19698,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19767,7 +19767,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19836,7 +19836,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19905,7 +19905,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -19968,13 +19968,13 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 30% ab 2 Aktion 3.60 Schweizer Franken</t>
+          <t>Country Cracker Käse - Online kein Bestand 30% ab 2 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20043,7 +20043,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20110,7 +20110,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20179,7 +20179,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20252,7 +20252,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20321,7 +20321,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20390,7 +20390,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20459,7 +20459,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20532,7 +20532,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20601,7 +20601,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20674,7 +20674,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20743,7 +20743,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20812,7 +20812,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20881,7 +20881,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -20954,7 +20954,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21023,7 +21023,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21092,7 +21092,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21161,7 +21161,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21234,7 +21234,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21307,7 +21307,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21376,7 +21376,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21449,7 +21449,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21518,7 +21518,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21664,7 +21664,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21875,7 +21875,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -21944,7 +21944,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22078,7 +22078,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22218,7 +22218,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22287,7 +22287,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22567,7 +22567,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22634,7 +22634,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22701,7 +22701,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22774,7 +22774,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22843,7 +22843,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22912,7 +22912,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -22981,7 +22981,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23050,7 +23050,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23123,7 +23123,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23196,7 +23196,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23269,7 +23269,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23338,7 +23338,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23407,7 +23407,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23476,7 +23476,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23545,7 +23545,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23614,7 +23614,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23685,7 +23685,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23758,7 +23758,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23827,7 +23827,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23894,7 +23894,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -23961,7 +23961,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24034,7 +24034,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24107,7 +24107,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24249,7 +24249,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24318,7 +24318,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24391,7 +24391,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24454,13 +24454,13 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24529,7 +24529,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24598,7 +24598,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24667,7 +24667,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24736,7 +24736,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24876,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -24943,7 +24943,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25012,7 +25012,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25081,7 +25081,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25154,7 +25154,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25223,7 +25223,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25292,7 +25292,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25430,7 +25430,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25499,7 +25499,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25568,7 +25568,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25637,7 +25637,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25706,7 +25706,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25779,7 +25779,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25917,7 +25917,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -25990,7 +25990,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26059,7 +26059,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26128,7 +26128,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26195,7 +26195,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26337,7 +26337,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26410,7 +26410,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26477,7 +26477,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26546,7 +26546,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26619,7 +26619,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26692,7 +26692,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26759,7 +26759,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26828,7 +26828,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26895,7 +26895,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -26964,7 +26964,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -27031,7 +27031,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -27100,7 +27100,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -27169,7 +27169,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -27242,7 +27242,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -27311,7 +27311,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -27380,7 +27380,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -27447,7 +27447,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
@@ -27516,24 +27516,24 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6585720</t>
+          <t>3735796</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Pasquier Beignet chocolat</t>
+          <t>Niederegger Marzipan Vollmilchbrot</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-beignet-chocolat/p/6585720</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-marzipan-vollmilchbrot/p/3735796</t>
         </is>
       </c>
       <c r="D384" t="inlineStr"/>
@@ -27542,17 +27542,17 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Niederegger</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>1.46/100g</t>
+          <t>4.76/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27562,7 +27562,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27572,35 +27572,35 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Pasquier Beignet chocolat 50% ab 2 Aktion 3.95 Schweizer Franken</t>
+          <t>Niederegger Marzipan Vollmilchbrot 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>3735796</t>
+          <t>6680519</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Niederegger Marzipan Vollmilchbrot</t>
+          <t>Pasquier Gâche tranchée</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-marzipan-vollmilchbrot/p/3735796</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-gache-tranchee/p/6680519</t>
         </is>
       </c>
       <c r="D385" t="inlineStr"/>
@@ -27609,17 +27609,17 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Niederegger</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>4.76/100g</t>
+          <t>1.10/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27629,7 +27629,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27639,35 +27639,35 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Niederegger Marzipan Vollmilchbrot 5.95 Schweizer Franken</t>
+          <t>Pasquier Gâche tranchée 50% ab 2 Aktion 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6680519</t>
+          <t>3002037</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Pasquier Gâche tranchée</t>
+          <t>Niederegger Schwarzbrot Marzipan</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-gache-tranchee/p/6680519</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-schwarzbrot-marzipan/p/3002037</t>
         </is>
       </c>
       <c r="D386" t="inlineStr"/>
@@ -27676,17 +27676,17 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Niederegger</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>1.10/100g</t>
+          <t>4.76/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27696,7 +27696,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27706,35 +27706,35 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Pasquier Gâche tranchée 50% ab 2 Aktion 5.50 Schweizer Franken</t>
+          <t>Niederegger Schwarzbrot Marzipan 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>3002037</t>
+          <t>6689542</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Niederegger Schwarzbrot Marzipan</t>
+          <t>Betty Bossi Osterkuchen</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-schwarzbrot-marzipan/p/3002037</t>
+          <t>/de/lebensmittel/suesses-snacks/oster-suessigkeiten/ostergebaeck/betty-bossi-osterkuchen/p/6689542</t>
         </is>
       </c>
       <c r="D387" t="inlineStr"/>
@@ -27743,17 +27743,17 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Niederegger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>4.76/100g</t>
+          <t>1.36/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27763,7 +27763,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27773,40 +27773,42 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'oster-suessigkeiten', 'ostergebaeck']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Niederegger Schwarzbrot Marzipan 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Osterkuchen - Online kein Bestand 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6689542</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Betty Bossi Osterkuchen</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/oster-suessigkeiten/ostergebaeck/betty-bossi-osterkuchen/p/6689542</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>14</v>
+      </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -27815,12 +27817,12 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>1.36/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27830,7 +27832,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27840,42 +27842,46 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'oster-suessigkeiten', 'ostergebaeck']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Betty Bossi Osterkuchen - Online kein Bestand 7.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N388" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E389" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -27884,12 +27890,12 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27899,7 +27905,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27909,46 +27915,40 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 20% ab 2 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6677401</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Ostertaube</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
-        </is>
-      </c>
-      <c r="D390" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677401</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
       <c r="E390" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -27972,7 +27972,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -27982,35 +27982,35 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Ostertaube 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6677401</t>
+          <t>5849793</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Ostertaube</t>
+          <t>Pasquier Tresse nature</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677401</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-tresse-nature/p/5849793</t>
         </is>
       </c>
       <c r="D391" t="inlineStr"/>
@@ -28019,17 +28019,17 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28039,7 +28039,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28054,80 +28054,13 @@
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Ostertaube 4.95 Schweizer Franken</t>
+          <t>Pasquier Tresse nature 50% ab 2 Aktion 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-03-09 06:49:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>5849793</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>Pasquier Tresse nature</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-tresse-nature/p/5849793</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="n">
-        <v>0</v>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>Pasquier</t>
-        </is>
-      </c>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>0.98/100g</t>
-        </is>
-      </c>
-      <c r="I392" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J392" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
-        </is>
-      </c>
-      <c r="M392" t="inlineStr">
-        <is>
-          <t>Pasquier Tresse nature 50% ab 2 Aktion 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N392" t="inlineStr"/>
-      <c r="O392" t="inlineStr">
-        <is>
-          <t>2023-03-09 06:49:40</t>
+          <t>2023-03-09 12:57:57</t>
         </is>
       </c>
     </row>
